--- a/JupyterNotebooks/AveragedIntensites-Exp/TRIP780A.xlsx
+++ b/JupyterNotebooks/AveragedIntensites-Exp/TRIP780A.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U23"/>
+  <dimension ref="A1:U25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1344,65 +1344,65 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>HexGrid-90degTilt5degRes</t>
+          <t>HexGrid-90degTilt22p5degRes</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.9887843999640632</v>
+        <v>1.000152709206348</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9904044004571106</v>
+        <v>1.004512157379551</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9903279118225773</v>
+        <v>0.9787567452273622</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9889344979512075</v>
+        <v>0.993029961728995</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9887843999640632</v>
+        <v>1.000152709206348</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9904044004571106</v>
+        <v>1.004512157379551</v>
       </c>
       <c r="I14" t="n">
-        <v>0.9892063469786484</v>
+        <v>0.9803620705836725</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9889430774921654</v>
+        <v>0.981882613418525</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9885698970046537</v>
+        <v>0.9904940528935374</v>
       </c>
       <c r="L14" t="n">
-        <v>0.9885888607432476</v>
+        <v>0.9977694582706162</v>
       </c>
       <c r="M14" t="n">
-        <v>0.9887481145903303</v>
+        <v>1.000124337934872</v>
       </c>
       <c r="N14" t="n">
-        <v>0.990366156139844</v>
+        <v>0.9916344513034566</v>
       </c>
       <c r="O14" t="n">
-        <v>0.9896694492041591</v>
+        <v>0.998771059554273</v>
       </c>
       <c r="P14" t="n">
-        <v>0.9898389040812504</v>
+        <v>0.9944738706044204</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.9898889367436318</v>
+        <v>0.9920996214453028</v>
       </c>
       <c r="R14" t="n">
-        <v>0.9898389040812504</v>
+        <v>0.9944738706044204</v>
       </c>
       <c r="S14" t="n">
-        <v>0.9896128025487396</v>
+        <v>0.9941128933855641</v>
       </c>
       <c r="T14" t="n">
-        <v>0.9894471220318044</v>
+        <v>0.995320856549721</v>
       </c>
       <c r="U14" t="n">
-        <v>0.9892199240517092</v>
+        <v>0.990869971088576</v>
       </c>
     </row>
     <row r="15">
@@ -2006,6 +2006,140 @@
       </c>
       <c r="U23" t="n">
         <v>1.025000053028856</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RotRing Axis-Y Res-5.0 Theta-2.5 </t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>1.117426683157106</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1.005579092170347</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.9317258133556036</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.9946533588929792</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1.117426683157106</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1.005579092170347</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.9670081193522106</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.9429378854902224</v>
+      </c>
+      <c r="K24" t="n">
+        <v>1.031356459421845</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.985517377788908</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.117300236712586</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.9686524527629754</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.000116225531663</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1.018243862894352</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.9773194214729767</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.018243862894352</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.012346236894009</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1.033362326146629</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0.9970255987036528</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RotRing Axis-Y Res-5.0 Theta-5.0 </t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>1.099275694931267</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.9992939533116582</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.935959401678264</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.9908990312517337</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1.099275694931267</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.9992939533116582</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.9720531637142232</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.9484581381004439</v>
+      </c>
+      <c r="K25" t="n">
+        <v>1.023049730476284</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.9832911295991779</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.099170278302773</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.9676266774949611</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.9950964922816959</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1.011509683307063</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.9753841287472187</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.011509683307063</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.006357020293231</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1.024940755220838</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0.9940350303828814</v>
       </c>
     </row>
   </sheetData>
